--- a/medicine/Enfance/Georges_Vidal/Georges_Vidal.xlsx
+++ b/medicine/Enfance/Georges_Vidal/Georges_Vidal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Vidal, né le 24 avril 1903 à Guérigny (Nièvre) et mort le 13 novembre 1964 à Paris, est un correcteur d'imprimerie, romancier, poète et militant anarchiste.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Vidal fut correcteur, romancier et militant anarchiste. Il est administrateur du journal Le Libertaire lors de l'affaire Philippe Daudet.
 Il est l'auteur de romans d'aventure publiés notamment chez Ferenczi et de romans policiers publiés aux Éditions du Fleuve noir.
 Il a publié sous de nombreux pseudonymes : Georges de Guérigny, Jorge Jimenez, Jorge El Macho, Edward G. Georgie, Georgie Val, Georges-Marie Valentin...
-Il contribue à l'Encyclopédie anarchiste, initiée par Sébastien Faure, publiée en quatre volumes, entre 1925 et 1934[1]
+Il contribue à l'Encyclopédie anarchiste, initiée par Sébastien Faure, publiée en quatre volumes, entre 1925 et 1934
 </t>
         </is>
       </c>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans signés Georges Vidal
-Le Clos des morts silencieuses, Éditions de France coll. « À ne pas lire la nuit » no 79, 1936
+          <t>Romans signés Georges Vidal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Clos des morts silencieuses, Éditions de France coll. « À ne pas lire la nuit » no 79, 1936
 Terreur à bord, Éditions de France coll. « À ne pas lire la nuit » no 84 1936
 La Vallée de la mort qui rôde, Éditions de France coll. « À ne pas lire la nuit » no 87, 1936
 La Maison cernée, Éditions des Loisirs, 1938
@@ -587,20 +606,156 @@
 Réaction de grâce, Fleuve noir coll. « Spécial Police » no 351, 1963
 Feu vert, Fleuve noir coll. « Spécial Police » no 403, 1964
 Terreur sur la personne, Fleuve noir coll. « Spécial Police » no 441, 1965
-Tension de famille, Fleuve noir coll. « Spécial Police » no 460, 1965
-Romans signés Georgie Val
-Crime sur mesures Éditions du Puits-Pelu coll. « Le Glaive » no 126, 1957
-Trois coups de poignard Éditions du Puits-Pelu coll. « Le Glaive » no 139, 1958
-Romans signés Edward G. Georgie
-Chassis en balade, Éditions Jacquier coll. « La Loupe » no 70, 1958
-Romans signés Jorge Jimenez
-Les crabes ont faim, Presses de la Cité coll. no 72, 1961
+Tension de famille, Fleuve noir coll. « Spécial Police » no 460, 1965</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Georges_Vidal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Vidal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans signés Georgie Val</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Crime sur mesures Éditions du Puits-Pelu coll. « Le Glaive » no 126, 1957
+Trois coups de poignard Éditions du Puits-Pelu coll. « Le Glaive » no 139, 1958</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Georges_Vidal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Vidal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans signés Edward G. Georgie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chassis en balade, Éditions Jacquier coll. « La Loupe » no 70, 1958</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Georges_Vidal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Vidal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans signés Jorge Jimenez</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les crabes ont faim, Presses de la Cité coll. no 72, 1961
 Contrainte par mort, Presses de la Cité coll. no 96, 1961
 Maux croisés, Presses de la Cité coll. no 106, 1961
 Prise de corps, Presses de la Cité coll. no 127, 1962
-À fleur de pot, Presses de la Cité coll. no 151, 1962
-Romans de littérature d'enfance et de jeunesse signés Jorge El Macho
-Le Rancho de l'effroi, Éditions Tallandier, 1932
+À fleur de pot, Presses de la Cité coll. no 151, 1962</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Georges_Vidal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Vidal</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse signés Jorge El Macho</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Rancho de l'effroi, Éditions Tallandier, 1932
 Les Chasseurs de trésors, Éditions Tallandier ,1933
 Les Contrebandiers de Shanghaï, Éditions Rouff, 1933
 Le Drame étrange du "Wangpoo", Maison de la bonne presse, 1933
@@ -631,75 +786,147 @@
 Toto Ier, empereur, Éditions Rouff coll. « Le Roman du jeudi » no 153, 1937
 Le Mousse de Christophe Colomb, Éditions Rouff coll. « L'Histoire vécue » no 6, 1937
 Panique sur Shanghai, Maison de la bonne presse, 1938
-La Randonnée farouche, Maison de la bonne presse coll. « L'Arc-en-ciel (collection) » no 25, 1939
-Autres ouvrages
-Quelques rimes, 1919
+La Randonnée farouche, Maison de la bonne presse coll. « L'Arc-en-ciel (collection) » no 25, 1939</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Georges_Vidal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Vidal</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Quelques rimes, 1919
 Han Ryner : l'Homme et l'œuvre, Librairie internationale, 1924
 Comment mourut Philippe Daudet, Éditions de l'Épi, 1925
 Six-Fours : Bourgade provençale, Humbles, 1925
 Jules le bienheureux, Humbles, 1926
 L'Horrible Crime des sœurs Papin, 1952
-Georges de Guérigny. Libertés provisoires Éditions de la Corne d'or, 1954
-Textes anarchistes
-Textes sur le site La Presse anarchiste, lire en ligne</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Georges_Vidal</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Georges_Vidal</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Georges de Guérigny. Libertés provisoires Éditions de la Corne d'or, 1954</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Georges_Vidal</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Vidal</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Textes anarchistes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Textes sur le site La Presse anarchiste, lire en ligne</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Georges_Vidal</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Vidal</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1948 : Croisière pour l'inconnu, film de Pierre Montazel, d'après L'aventure est à bord, paru en 1945.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Georges_Vidal</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Georges_Vidal</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Georges_Vidal</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Vidal</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Dictionnaire des anarchistes, « Le Maitron » : notice biographique.
 Dictionnaire international des militants anarchistes : notice biographique.
